--- a/Assets/ArtRes/Excel/UnitData.xlsx
+++ b/Assets/ArtRes/Excel/UnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\YM\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC460DC-F21A-4C3B-85C5-79B643686A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F35ED1D-7CB6-4FF9-8434-80C9D3BC635B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1665" windowWidth="37575" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3750" windowWidth="35145" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>unitName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E_UnitCamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unitCamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
   </si>
   <si>
     <t>资源路径（Resource路径下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位阵营（0：玩家、1：敌人、2：NPC）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,18 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Unit/Emeny/Bat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Unit/Emeny/Snake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Unit/Emeny/Wolf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Unit/Other/Ghosting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +199,72 @@
   <si>
     <t>100002</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Unit/Enemy/Bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Unit/Enemy/Wolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Unit/Enemy/Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Unit/Enemy/Enemy_Snake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExplosionEffect</t>
+  </si>
+  <si>
+    <t>Prefabs/Effects/ExplosionEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200007</t>
+  </si>
+  <si>
+    <t>Prefabs/Effects/HitEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_UnitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位类型（0：玩家、1：敌人、2：NPC 、3 : 其他）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Emeny</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -265,14 +307,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,14 +603,14 @@
     <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -583,15 +619,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -600,10 +636,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -614,55 +650,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -670,152 +706,203 @@
         <v>100003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
